--- a/workshops/Jun2023/agenda-times.xlsx
+++ b/workshops/Jun2023/agenda-times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\msticpy-training\workshops\Oct2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\msticpy-training\workshops\Jun2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2473C-F663-49E4-B298-DB4BDB76E3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A8F99-E33B-41F4-A0F3-6FD859541780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1690" yWindow="1100" windowWidth="33920" windowHeight="20880" xr2:uid="{C53419B6-F355-49A7-B9EB-C246A9AD6AF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C53419B6-F355-49A7-B9EB-C246A9AD6AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Section​</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Intro to MSTICPy &amp; Notebooks​</t>
   </si>
   <si>
-    <t>MSTICPy Config​</t>
-  </si>
-  <si>
     <t>Break​</t>
   </si>
   <si>
@@ -68,27 +65,12 @@
     <t>Enrichment with MSTICPy ​</t>
   </si>
   <si>
-    <t>Jupyter notebooks advanced ​</t>
-  </si>
-  <si>
     <t>Data Analysis with MSTICpy ​</t>
   </si>
   <si>
     <t>Data Visualization with MSTICPy ​</t>
   </si>
   <si>
-    <t>Putting it into operation​</t>
-  </si>
-  <si>
-    <t>Who</t>
-  </si>
-  <si>
-    <t>Ian/Pete</t>
-  </si>
-  <si>
-    <t>Pete</t>
-  </si>
-  <si>
     <t>Ian</t>
   </si>
   <si>
@@ -96,13 +78,31 @@
   </si>
   <si>
     <t>Remaining</t>
+  </si>
+  <si>
+    <t>MSTICPy Config​uration</t>
+  </si>
+  <si>
+    <t>Troubleshooting and advanced topics ​</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Ian/Ashwin</t>
+  </si>
+  <si>
+    <t>Presenter</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -136,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -189,11 +202,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -211,17 +235,272 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBD582C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFBD582C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBD582C"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBD582C"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFBD582C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBD582C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBD582C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBD582C"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFBD582C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBD582C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBD582C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBD582C"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFBD582C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBD582C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBD582C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBD582C"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFBD582C"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBD582C"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBD582C"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBD582C"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -232,6 +511,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4D627AB-850D-46A4-8767-734D3142230D}" name="Table1" displayName="Table1" ref="D4:J15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="D4:J15" xr:uid="{C4D627AB-850D-46A4-8767-734D3142230D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5346DD27-4C84-4AAB-BB23-C4F798B0FD00}" name="Section​" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DB3C7908-A4AE-4529-9FA6-2A0A28E3FE95}" name="Presenter" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7979E44F-FAA3-40A2-ACE7-C98E7451016C}" name="Time​" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{30D7BF28-3925-49B3-99C5-3196B0139CDC}" name="Start" dataDxfId="4">
+      <calculatedColumnFormula>G4+F4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1F0BC67E-81B1-4297-BEEB-484E5581CA23}" name="End" dataDxfId="3">
+      <calculatedColumnFormula>G5+F5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{AE34EA3B-C560-42D8-B4D0-11F45558E391}" name="Remaining" dataDxfId="2">
+      <calculatedColumnFormula>I4-F4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9781FD68-A114-4636-811F-E674BB2F567A}" name="Cumulative" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Time​]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,27 +834,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A69D237-3E9E-4E74-8868-4C172E187EC9}">
-  <dimension ref="D3:J31"/>
+  <dimension ref="D3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:I30"/>
+      <selection activeCell="D4" sqref="D4:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" customWidth="1"/>
     <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="9" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -559,483 +864,334 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>1.3888888888888888E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5+F5</f>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="J5" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="G6" s="6">
         <f>G5+F5</f>
-        <v>0.57638888888888884</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H15" si="0">G6+F6</f>
+        <v>0.52430555555555547</v>
+      </c>
+      <c r="I6" s="8">
+        <f>I5-F5</f>
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="J6" s="8">
+        <f>Table1[[#This Row],[Time​]]+J5</f>
+        <v>2.4305555555555552E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" ref="G7:G15" si="0">G6+F6</f>
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="J7" s="3">
+        <f t="shared" ref="G7:G15" si="1">G6+F6</f>
+        <v>0.52430555555555547</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I15" si="2">I6-F6</f>
+        <v>0.10069444444444445</v>
+      </c>
+      <c r="J7" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="K7" s="3">
         <f>SUM(F5:F7)</f>
-        <v>4.5138888888888888E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+        <v>3.4722222222222217E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6">
-        <v>1.0416666666666666E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>0.60763888888888884</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="2"/>
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666652</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55902777777777768</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.55902777777777768</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="J10" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>0.61805555555555547</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.63194444444444431</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.64583333333333315</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <f>SUM(F9:F11)</f>
-        <v>3.8194444444444441E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5972222222222221</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5972222222222221</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777766E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>0.65624999999999978</v>
-      </c>
-      <c r="J12" s="3">
+        <v>0.62152777777777757</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888878E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.62152777777777757</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666641</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.68749999999999978</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333315</v>
-      </c>
-      <c r="J15" s="3">
+        <v>0.62499999999999978</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
+        <v>3.4722222222222116E-3</v>
+      </c>
+      <c r="J15" s="8">
+        <f>Table1[[#This Row],[Time​]]</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K15" s="3">
         <f>SUM(F13:F15)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F16" s="3">
         <f>SUM(F5:F15)</f>
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.5625</v>
-      </c>
-      <c r="H20" s="4">
-        <f>G20+F20</f>
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="G21" s="6">
-        <f>G20+F20</f>
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21:H30" si="1">G21+F21</f>
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="I21" s="8">
-        <f>I20-F20</f>
-        <v>0.11458333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" ref="G22:G30" si="2">G21+F21</f>
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" ref="I22:I30" si="3">I21-F21</f>
-        <v>9.722222222222221E-2</v>
-      </c>
-      <c r="J22" s="3">
-        <f>SUM(F20:F22)</f>
-        <v>3.8194444444444441E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="2"/>
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.60763888888888884</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="3"/>
-        <v>8.6805555555555539E-2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="2"/>
-        <v>0.60763888888888884</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.62152777777777768</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="3"/>
-        <v>7.9861111111111091E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="2"/>
-        <v>0.62152777777777768</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63541666666666652</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="3"/>
-        <v>6.597222222222221E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="2"/>
-        <v>0.63541666666666652</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63888888888888873</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="3"/>
-        <v>5.2083333333333322E-2</v>
-      </c>
-      <c r="J26" s="3">
-        <f>SUM(F24:F26)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="2"/>
-        <v>0.63888888888888873</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64583333333333315</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="3"/>
-        <v>4.8611111111111098E-2</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="2"/>
-        <v>0.64583333333333315</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="1"/>
-        <v>0.65972222222222199</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="3"/>
-        <v>4.1666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="2"/>
-        <v>0.65972222222222199</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>0.67361111111111083</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777769E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="2"/>
-        <v>0.67361111111111083</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="1"/>
-        <v>0.68749999999999967</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="3"/>
-        <v>1.3888888888888881E-2</v>
-      </c>
-      <c r="J30" s="3">
-        <f>SUM(F28:F30)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F31" s="3">
-        <f>SUM(F20:F30)</f>
         <v>0.125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>